--- a/public/templates/siswa_template.xlsx
+++ b/public/templates/siswa_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rizki\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD96B8F7-BFC1-4A41-93CE-1FA8255662AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC17FAFB-321E-4575-9073-1321C5DCF8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BD44749-B442-4CB0-B098-E5ECD6BFACC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BD44749-B442-4CB0-B098-E5ECD6BFACC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>nisn</t>
   </si>
@@ -57,20 +57,71 @@
     <t>tanggal_lahir</t>
   </si>
   <si>
-    <t>agama_id</t>
-  </si>
-  <si>
     <t>alamat</t>
+  </si>
+  <si>
+    <t>tahun_lahirIbu</t>
+  </si>
+  <si>
+    <t>tahun_lahirAyah</t>
+  </si>
+  <si>
+    <t>tingkat</t>
+  </si>
+  <si>
+    <t>jurusan</t>
+  </si>
+  <si>
+    <t>kelas</t>
+  </si>
+  <si>
+    <t>agama</t>
+  </si>
+  <si>
+    <t>pendidikan_Ibu</t>
+  </si>
+  <si>
+    <t>pekerjaan_Ibu</t>
+  </si>
+  <si>
+    <t>penghasilan_Ibu</t>
+  </si>
+  <si>
+    <t>pendidikan_Ayah</t>
+  </si>
+  <si>
+    <t>pekerjaan_Ayah</t>
+  </si>
+  <si>
+    <t>penghasilan_Ayah</t>
+  </si>
+  <si>
+    <t>nama_Ayah</t>
+  </si>
+  <si>
+    <t>nik_Ayah</t>
+  </si>
+  <si>
+    <t>nama_Ibu</t>
+  </si>
+  <si>
+    <t>nik_Ibu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,15 +464,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F87C1CC-7964-4877-AF1D-7CF7BA572AF8}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A2" sqref="A2:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,13 +498,229 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="Q35" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>